--- a/external/tHFA-malawi_indicatormatching.xlsx
+++ b/external/tHFA-malawi_indicatormatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankhurijha/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d4a9fd65a6bad53/Seun/2. Career and business/3. IQVIA-Asiwaju-PC/Analysis/tHFA/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D5757D-AABB-A74D-8D0A-11517EC73E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{86D5757D-AABB-A74D-8D0A-11517EC73E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBEB6BE5-F732-406A-89AF-190E1C3CF486}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2825,7 +2825,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2858,9 +2862,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3197,11 +3203,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DW121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="BZ11" sqref="BZ11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:127">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3584,7 +3592,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="2" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:127">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3830,7 +3838,7 @@
       <c r="CE2" s="1">
         <v>18</v>
       </c>
-      <c r="CF2" s="1">
+      <c r="CF2" s="3">
         <v>0</v>
       </c>
       <c r="CG2" s="1">
@@ -3961,7 +3969,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="3" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:127">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4026,7 +4034,7 @@
         <v>324</v>
       </c>
       <c r="V3" s="1">
-        <v>70.555557250976562</v>
+        <v>70.555557250976563</v>
       </c>
       <c r="W3" t="s">
         <v>445</v>
@@ -4330,7 +4338,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="4" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:127">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4701,7 +4709,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="5" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:127">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5072,7 +5080,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="6" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:127">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5131,7 +5139,7 @@
         <v>64.074073791503906</v>
       </c>
       <c r="T6" s="1">
-        <v>58.148147583007812</v>
+        <v>58.148147583007813</v>
       </c>
       <c r="U6" t="s">
         <v>327</v>
@@ -5253,13 +5261,13 @@
         <v>100</v>
       </c>
       <c r="BJ6" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BK6" t="s">
         <v>765</v>
       </c>
       <c r="BL6" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BM6" s="1"/>
       <c r="BN6" s="1"/>
@@ -5439,7 +5447,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="7" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:127">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5786,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="DP7" s="1">
-        <v>142.60000610351562</v>
+        <v>142.60000610351563</v>
       </c>
       <c r="DQ7" s="1">
         <v>0</v>
@@ -5808,7 +5816,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="8" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:127">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5873,7 +5881,7 @@
         <v>329</v>
       </c>
       <c r="V8" s="1">
-        <v>60.555557250976562</v>
+        <v>60.555557250976563</v>
       </c>
       <c r="W8" t="s">
         <v>450</v>
@@ -5930,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>83.550613403320312</v>
+        <v>83.550613403320313</v>
       </c>
       <c r="AP8" s="1">
         <v>56.666667938232422</v>
@@ -6050,7 +6058,7 @@
       <c r="CE8" s="1">
         <v>14</v>
       </c>
-      <c r="CF8" s="1">
+      <c r="CF8" s="2">
         <v>0</v>
       </c>
       <c r="CG8" s="1"/>
@@ -6175,7 +6183,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="9" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:127">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6550,7 +6558,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="10" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:127">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6881,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="DP10" s="1">
-        <v>136.60000610351562</v>
+        <v>136.60000610351563</v>
       </c>
       <c r="DQ10" s="1">
         <v>0</v>
@@ -6901,7 +6909,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="11" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:127">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>66.571426391601562</v>
+        <v>66.571426391601563</v>
       </c>
       <c r="AP11" s="1">
         <v>66.666664123535156</v>
@@ -7272,7 +7280,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="12" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:127">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7455,13 +7463,13 @@
         <v>100</v>
       </c>
       <c r="BJ12" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK12" t="s">
         <v>771</v>
       </c>
       <c r="BL12" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM12" s="1"/>
       <c r="BN12" s="1">
@@ -7649,7 +7657,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="13" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:127">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8016,7 +8024,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="14" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:127">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8373,7 +8381,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="15" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:127">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8558,7 +8566,7 @@
       </c>
       <c r="BM15" s="1"/>
       <c r="BN15" s="1">
-        <v>61.240310668945312</v>
+        <v>61.240310668945313</v>
       </c>
       <c r="BO15" s="1">
         <v>129</v>
@@ -8613,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="CG15" s="1">
-        <v>61.240310668945312</v>
+        <v>61.240310668945313</v>
       </c>
       <c r="CH15" s="1">
         <v>100</v>
@@ -8740,7 +8748,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:127">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8862,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>65.445205688476562</v>
+        <v>65.445205688476563</v>
       </c>
       <c r="AP16" s="1">
         <v>60</v>
@@ -9077,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="DP16" s="1">
-        <v>246.60000610351562</v>
+        <v>246.60000610351563</v>
       </c>
       <c r="DQ16" s="1">
         <v>0</v>
@@ -9101,7 +9109,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="17" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:127">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9166,7 +9174,7 @@
         <v>338</v>
       </c>
       <c r="V17" s="1">
-        <v>65.555557250976562</v>
+        <v>65.555557250976563</v>
       </c>
       <c r="W17" t="s">
         <v>459</v>
@@ -9294,7 +9302,7 @@
       </c>
       <c r="BM17" s="1"/>
       <c r="BN17" s="1">
-        <v>5.6603775024414062</v>
+        <v>5.6603775024414063</v>
       </c>
       <c r="BO17" s="1">
         <v>53</v>
@@ -9351,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="CG17" s="1">
-        <v>5.6603775024414062</v>
+        <v>5.6603775024414063</v>
       </c>
       <c r="CH17" s="1">
         <v>0</v>
@@ -9456,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="DP17" s="1">
-        <v>296.60000610351562</v>
+        <v>296.60000610351563</v>
       </c>
       <c r="DQ17" s="1">
         <v>0</v>
@@ -9478,7 +9486,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="18" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:127">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9819,7 +9827,7 @@
       <c r="DN18" s="1"/>
       <c r="DO18" s="1"/>
       <c r="DP18" s="1">
-        <v>341.60000610351562</v>
+        <v>341.60000610351563</v>
       </c>
       <c r="DQ18" s="1">
         <v>0</v>
@@ -9841,7 +9849,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:127">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -10206,7 +10214,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="20" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:127">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10583,7 +10591,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="21" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:127">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10642,7 +10650,7 @@
         <v>46.039943695068359</v>
       </c>
       <c r="T21" s="1">
-        <v>30.413223266601562</v>
+        <v>30.413223266601563</v>
       </c>
       <c r="U21" t="s">
         <v>342</v>
@@ -10944,7 +10952,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="22" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:127">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11319,7 +11327,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:127">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -11682,7 +11690,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="24" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:127">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -12063,7 +12071,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="25" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:127">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -12198,7 +12206,7 @@
         <v>60</v>
       </c>
       <c r="AT25" s="1">
-        <v>95.555557250976562</v>
+        <v>95.555557250976563</v>
       </c>
       <c r="AU25" s="1">
         <v>100</v>
@@ -12403,7 +12411,7 @@
         <v>0.71428573131561279</v>
       </c>
       <c r="DO25" s="1">
-        <v>28.571426391601562</v>
+        <v>28.571426391601563</v>
       </c>
       <c r="DP25" s="1">
         <v>305</v>
@@ -12418,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="DT25" s="1">
-        <v>95.555557250976562</v>
+        <v>95.555557250976563</v>
       </c>
       <c r="DU25" s="1">
         <v>100</v>
@@ -12428,7 +12436,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="26" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:127">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -12548,7 +12556,7 @@
         <v>40</v>
       </c>
       <c r="AO26" s="1">
-        <v>77.656997680664062</v>
+        <v>77.656997680664063</v>
       </c>
       <c r="AP26" s="1">
         <v>66.666664123535156</v>
@@ -12789,7 +12797,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="27" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:127">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -13166,7 +13174,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="28" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:127">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -13537,7 +13545,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="29" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:127">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -13914,7 +13922,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="30" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:127">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14217,7 +14225,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="31" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:127">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14598,7 +14606,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="32" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:127">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14971,7 +14979,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="33" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:127">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -15036,7 +15044,7 @@
         <v>354</v>
       </c>
       <c r="V33" s="1">
-        <v>75.555557250976562</v>
+        <v>75.555557250976563</v>
       </c>
       <c r="W33" t="s">
         <v>475</v>
@@ -15332,7 +15340,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="34" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:127">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -15513,13 +15521,13 @@
         <v>100</v>
       </c>
       <c r="BJ34" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BK34" t="s">
         <v>765</v>
       </c>
       <c r="BL34" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BM34" s="1"/>
       <c r="BN34" s="1">
@@ -15707,7 +15715,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="35" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:127">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -15763,7 +15771,7 @@
         <v>100</v>
       </c>
       <c r="S35" s="1">
-        <v>55.454544067382812</v>
+        <v>55.454544067382813</v>
       </c>
       <c r="T35" s="1">
         <v>30.909090042114258</v>
@@ -15890,14 +15898,14 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BK35" t="s">
         <v>793</v>
       </c>
       <c r="BL35" s="1"/>
       <c r="BM35" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BN35" s="1">
         <v>32.352939605712891</v>
@@ -16084,7 +16092,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="36" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:127">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -16453,7 +16461,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="37" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:127">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -16818,7 +16826,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="38" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:127">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -17169,7 +17177,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="39" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:127">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -17234,7 +17242,7 @@
         <v>360</v>
       </c>
       <c r="V39" s="1">
-        <v>65.555557250976562</v>
+        <v>65.555557250976563</v>
       </c>
       <c r="W39" t="s">
         <v>481</v>
@@ -17528,7 +17536,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="40" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:127">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -17584,7 +17592,7 @@
         <v>100</v>
       </c>
       <c r="S40" s="1">
-        <v>55.055557250976562</v>
+        <v>55.055557250976563</v>
       </c>
       <c r="T40" s="1">
         <v>29</v>
@@ -17895,7 +17903,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="41" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:127">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -18262,7 +18270,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="42" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:127">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -18633,7 +18641,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="43" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:127">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -19002,7 +19010,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="44" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:127">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -19058,7 +19066,7 @@
         <v>100</v>
       </c>
       <c r="S44" s="1">
-        <v>54.398147583007812</v>
+        <v>54.398147583007813</v>
       </c>
       <c r="T44" s="1">
         <v>30.462963104248047</v>
@@ -19377,7 +19385,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="45" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:127">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -19512,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="1">
-        <v>82.907180786132812</v>
+        <v>82.907180786132813</v>
       </c>
       <c r="AU45" s="1">
         <v>100</v>
@@ -19736,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="DT45" s="1">
-        <v>82.907180786132812</v>
+        <v>82.907180786132813</v>
       </c>
       <c r="DU45" s="1">
         <v>100</v>
@@ -19746,7 +19754,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="46" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:127">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -20105,7 +20113,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="47" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:127">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -20170,7 +20178,7 @@
         <v>368</v>
       </c>
       <c r="V47" s="1">
-        <v>65.555557250976562</v>
+        <v>65.555557250976563</v>
       </c>
       <c r="W47" t="s">
         <v>489</v>
@@ -20448,7 +20456,7 @@
         <v>61.538459777832031</v>
       </c>
       <c r="DP47" s="1">
-        <v>223.60000610351562</v>
+        <v>223.60000610351563</v>
       </c>
       <c r="DQ47" s="1">
         <v>0</v>
@@ -20472,7 +20480,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="48" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:127">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -20537,7 +20545,7 @@
         <v>369</v>
       </c>
       <c r="V48" s="1">
-        <v>65.555557250976562</v>
+        <v>65.555557250976563</v>
       </c>
       <c r="W48" t="s">
         <v>490</v>
@@ -20592,7 +20600,7 @@
         <v>0</v>
       </c>
       <c r="AO48" s="1">
-        <v>73.335647583007812</v>
+        <v>73.335647583007813</v>
       </c>
       <c r="AP48" s="1">
         <v>60</v>
@@ -20833,7 +20841,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="49" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:127">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -21200,7 +21208,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="50" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:127">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -21265,7 +21273,7 @@
         <v>371</v>
       </c>
       <c r="V50" s="1">
-        <v>60.555557250976562</v>
+        <v>60.555557250976563</v>
       </c>
       <c r="W50" t="s">
         <v>492</v>
@@ -21337,7 +21345,7 @@
         <v>0</v>
       </c>
       <c r="AT50" s="1">
-        <v>90.336746215820312</v>
+        <v>90.336746215820313</v>
       </c>
       <c r="AU50" s="1">
         <v>60</v>
@@ -21561,7 +21569,7 @@
         <v>0</v>
       </c>
       <c r="DT50" s="1">
-        <v>90.336746215820312</v>
+        <v>90.336746215820313</v>
       </c>
       <c r="DU50" s="1">
         <v>100</v>
@@ -21573,7 +21581,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="51" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:127">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -21708,7 +21716,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="1">
-        <v>94.690261840820312</v>
+        <v>94.690261840820313</v>
       </c>
       <c r="AU51" s="1">
         <v>100</v>
@@ -21940,7 +21948,7 @@
         <v>0</v>
       </c>
       <c r="DT51" s="1">
-        <v>94.690261840820312</v>
+        <v>94.690261840820313</v>
       </c>
       <c r="DU51" s="1">
         <v>100</v>
@@ -21950,7 +21958,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="52" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:127">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -22006,7 +22014,7 @@
         <v>100</v>
       </c>
       <c r="S52" s="1">
-        <v>68.803421020507812</v>
+        <v>68.803421020507813</v>
       </c>
       <c r="T52" s="1">
         <v>65.384613037109375</v>
@@ -22319,7 +22327,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="53" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:127">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -22690,7 +22698,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="54" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:127">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -23053,7 +23061,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="55" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:127">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -23430,7 +23438,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="56" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:127">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -23807,7 +23815,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="57" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:127">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -24170,7 +24178,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="58" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:127">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -24539,7 +24547,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="59" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:127">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -24910,7 +24918,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="60" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:127">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -25273,7 +25281,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="61" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:127">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -25446,14 +25454,14 @@
       <c r="BH61" s="1"/>
       <c r="BI61" s="1"/>
       <c r="BJ61" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BK61" t="s">
         <v>816</v>
       </c>
       <c r="BL61" s="1"/>
       <c r="BM61" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BN61" s="1">
         <v>4</v>
@@ -25612,7 +25620,7 @@
         <v>50</v>
       </c>
       <c r="DP61" s="1">
-        <v>292.60000610351562</v>
+        <v>292.60000610351563</v>
       </c>
       <c r="DQ61" s="1">
         <v>0</v>
@@ -25632,7 +25640,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="62" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:127">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -25983,7 +25991,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="63" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:127">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -26156,14 +26164,14 @@
       <c r="BH63" s="1"/>
       <c r="BI63" s="1"/>
       <c r="BJ63" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BK63" t="s">
         <v>817</v>
       </c>
       <c r="BL63" s="1"/>
       <c r="BM63" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BN63" s="1">
         <v>54.545455932617188</v>
@@ -26344,7 +26352,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="64" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:127">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -26525,13 +26533,13 @@
         <v>100</v>
       </c>
       <c r="BJ64" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK64" t="s">
         <v>771</v>
       </c>
       <c r="BL64" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
@@ -26711,7 +26719,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="65" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:127">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -27078,7 +27086,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:127">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -27337,7 +27345,7 @@
         <v>55</v>
       </c>
       <c r="CJ66" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="CK66" s="1">
         <v>0</v>
@@ -27455,7 +27463,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="67" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:127">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -27812,7 +27820,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="68" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:127">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -28189,7 +28197,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="69" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:127">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -28313,7 +28321,7 @@
         <v>66.666664123535156</v>
       </c>
       <c r="AQ69" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="AR69" s="1">
         <v>20.666666030883789</v>
@@ -28364,13 +28372,13 @@
       <c r="BH69" s="1"/>
       <c r="BI69" s="1"/>
       <c r="BJ69" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK69" t="s">
         <v>821</v>
       </c>
       <c r="BL69" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM69" s="1"/>
       <c r="BN69" s="1">
@@ -28550,7 +28558,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="70" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:127">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -28913,7 +28921,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="71" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:127">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -28972,7 +28980,7 @@
         <v>72.433952331542969</v>
       </c>
       <c r="T71" s="1">
-        <v>80.979019165039062</v>
+        <v>80.979019165039063</v>
       </c>
       <c r="U71" t="s">
         <v>392</v>
@@ -29096,13 +29104,13 @@
         <v>100</v>
       </c>
       <c r="BJ71" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK71" t="s">
         <v>823</v>
       </c>
       <c r="BL71" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM71" s="1"/>
       <c r="BN71" s="1">
@@ -29292,7 +29300,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="72" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:127">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -29661,7 +29669,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="73" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:127">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -29836,14 +29844,14 @@
       <c r="BH73" s="1"/>
       <c r="BI73" s="1"/>
       <c r="BJ73" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BK73" t="s">
         <v>824</v>
       </c>
       <c r="BL73" s="1"/>
       <c r="BM73" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BN73" s="1">
         <v>47.368419647216797</v>
@@ -30028,7 +30036,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="74" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:127">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -30405,7 +30413,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="75" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:127">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -30538,7 +30546,7 @@
         <v>0</v>
       </c>
       <c r="AT75" s="1">
-        <v>86.366226196289062</v>
+        <v>86.366226196289063</v>
       </c>
       <c r="AU75" s="1">
         <v>100</v>
@@ -30760,7 +30768,7 @@
         <v>0</v>
       </c>
       <c r="DT75" s="1">
-        <v>86.366226196289062</v>
+        <v>86.366226196289063</v>
       </c>
       <c r="DU75" s="1">
         <v>100</v>
@@ -30770,7 +30778,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="76" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:127">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -31131,7 +31139,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="77" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:127">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -31496,7 +31504,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="78" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:127">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -31552,16 +31560,16 @@
         <v>100</v>
       </c>
       <c r="S78" s="1">
-        <v>60.035354614257812</v>
+        <v>60.035354614257813</v>
       </c>
       <c r="T78" s="1">
-        <v>59.515151977539062</v>
+        <v>59.515151977539063</v>
       </c>
       <c r="U78" t="s">
         <v>399</v>
       </c>
       <c r="V78" s="1">
-        <v>60.555557250976562</v>
+        <v>60.555557250976563</v>
       </c>
       <c r="W78" t="s">
         <v>520</v>
@@ -31873,7 +31881,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="79" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:127">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -32128,7 +32136,7 @@
         <v>33.333332061767578</v>
       </c>
       <c r="CL79" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="CM79" t="s">
         <v>895</v>
@@ -32240,7 +32248,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="80" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:127">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -32366,7 +32374,7 @@
         <v>66.666664123535156</v>
       </c>
       <c r="AQ80" s="1">
-        <v>83.076919555664062</v>
+        <v>83.076919555664063</v>
       </c>
       <c r="AR80" s="1">
         <v>29.814815521240234</v>
@@ -32611,7 +32619,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="81" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:127">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -32676,7 +32684,7 @@
         <v>402</v>
       </c>
       <c r="V81" s="1">
-        <v>80.555557250976562</v>
+        <v>80.555557250976563</v>
       </c>
       <c r="W81" t="s">
         <v>523</v>
@@ -32986,7 +32994,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="82" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:127">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -33351,7 +33359,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="83" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:127">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -33605,7 +33613,7 @@
         <v>57.894737243652344</v>
       </c>
       <c r="CK83" s="1">
-        <v>73.076919555664062</v>
+        <v>73.076919555664063</v>
       </c>
       <c r="CL83" s="1"/>
       <c r="CM83" t="s">
@@ -33692,7 +33700,7 @@
       <c r="DN83" s="1"/>
       <c r="DO83" s="1"/>
       <c r="DP83" s="1">
-        <v>475.60000610351562</v>
+        <v>475.60000610351563</v>
       </c>
       <c r="DQ83" s="1">
         <v>1</v>
@@ -33716,7 +33724,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="84" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:127">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -33836,7 +33844,7 @@
         <v>60</v>
       </c>
       <c r="AO84" s="1">
-        <v>62.571609497070312</v>
+        <v>62.571609497070313</v>
       </c>
       <c r="AP84" s="1">
         <v>66.666664123535156</v>
@@ -34077,7 +34085,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="85" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:127">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -34133,7 +34141,7 @@
         <v>100</v>
       </c>
       <c r="S85" s="1">
-        <v>78.055557250976562</v>
+        <v>78.055557250976563</v>
       </c>
       <c r="T85" s="1">
         <v>80</v>
@@ -34197,7 +34205,7 @@
         <v>80</v>
       </c>
       <c r="AO85" s="1">
-        <v>83.552871704101562</v>
+        <v>83.552871704101563</v>
       </c>
       <c r="AP85" s="1">
         <v>66.666664123535156</v>
@@ -34442,7 +34450,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="86" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:127">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -34498,7 +34506,7 @@
         <v>100</v>
       </c>
       <c r="S86" s="1">
-        <v>65.555557250976562</v>
+        <v>65.555557250976563</v>
       </c>
       <c r="T86" s="1">
         <v>73.333335876464844</v>
@@ -34577,7 +34585,7 @@
         <v>0</v>
       </c>
       <c r="AT86" s="1">
-        <v>92.063491821289062</v>
+        <v>92.063491821289063</v>
       </c>
       <c r="AU86" s="1">
         <v>100</v>
@@ -34790,7 +34798,7 @@
         <v>0.71428573131561279</v>
       </c>
       <c r="DO86" s="1">
-        <v>28.571426391601562</v>
+        <v>28.571426391601563</v>
       </c>
       <c r="DP86" s="1">
         <v>319.39999389648438</v>
@@ -34805,7 +34813,7 @@
         <v>0</v>
       </c>
       <c r="DT86" s="1">
-        <v>92.063491821289062</v>
+        <v>92.063491821289063</v>
       </c>
       <c r="DU86" s="1">
         <v>100</v>
@@ -34815,7 +34823,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="87" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:127">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -35188,7 +35196,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="88" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:127">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -35537,7 +35545,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="89" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:127">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -35902,7 +35910,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="90" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:127">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -36279,7 +36287,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="91" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:127">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -36338,13 +36346,13 @@
         <v>59.505050659179688</v>
       </c>
       <c r="T91" s="1">
-        <v>43.454544067382812</v>
+        <v>43.454544067382813</v>
       </c>
       <c r="U91" t="s">
         <v>412</v>
       </c>
       <c r="V91" s="1">
-        <v>75.555557250976562</v>
+        <v>75.555557250976563</v>
       </c>
       <c r="W91" t="s">
         <v>533</v>
@@ -36401,7 +36409,7 @@
         <v>20</v>
       </c>
       <c r="AO91" s="1">
-        <v>88.982620239257812</v>
+        <v>88.982620239257813</v>
       </c>
       <c r="AP91" s="1">
         <v>68.333335876464844</v>
@@ -36464,13 +36472,13 @@
         <v>100</v>
       </c>
       <c r="BJ91" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK91" t="s">
         <v>771</v>
       </c>
       <c r="BL91" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM91" s="1"/>
       <c r="BN91" s="1">
@@ -36658,7 +36666,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="92" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:127">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -37033,7 +37041,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="93" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:127">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -37382,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="DP93" s="1">
-        <v>141.60000610351562</v>
+        <v>141.60000610351563</v>
       </c>
       <c r="DQ93" s="1">
         <v>0</v>
@@ -37404,7 +37412,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="94" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:127">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -37743,7 +37751,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="95" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:127">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -37799,7 +37807,7 @@
         <v>100</v>
       </c>
       <c r="S95" s="1">
-        <v>43.555557250976562</v>
+        <v>43.555557250976563</v>
       </c>
       <c r="T95" s="1">
         <v>36</v>
@@ -37924,13 +37932,13 @@
         <v>0</v>
       </c>
       <c r="BJ95" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK95" t="s">
         <v>844</v>
       </c>
       <c r="BL95" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM95" s="1"/>
       <c r="BN95" s="1"/>
@@ -38110,7 +38118,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="96" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:127">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -38241,7 +38249,7 @@
         <v>20</v>
       </c>
       <c r="AT96" s="1">
-        <v>98.486709594726562</v>
+        <v>98.486709594726563</v>
       </c>
       <c r="AU96" s="1">
         <v>60</v>
@@ -38289,13 +38297,13 @@
         <v>100</v>
       </c>
       <c r="BJ96" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK96" t="s">
         <v>771</v>
       </c>
       <c r="BL96" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM96" s="1"/>
       <c r="BN96" s="1"/>
@@ -38465,7 +38473,7 @@
         <v>0</v>
       </c>
       <c r="DT96" s="1">
-        <v>98.486709594726562</v>
+        <v>98.486709594726563</v>
       </c>
       <c r="DU96" s="1">
         <v>100</v>
@@ -38475,7 +38483,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="97" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:127">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -38822,7 +38830,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="98" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:127">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -39003,13 +39011,13 @@
         <v>100</v>
       </c>
       <c r="BJ98" s="1">
-        <v>42.307693481445312</v>
+        <v>42.307693481445313</v>
       </c>
       <c r="BK98" t="s">
         <v>846</v>
       </c>
       <c r="BL98" s="1">
-        <v>42.307693481445312</v>
+        <v>42.307693481445313</v>
       </c>
       <c r="BM98" s="1"/>
       <c r="BN98" s="1">
@@ -39199,7 +39207,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="99" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:127">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -39552,7 +39560,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="100" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:127">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -39923,7 +39931,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="101" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:127">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -40278,7 +40286,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="102" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:127">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -40611,7 +40619,7 @@
         <v>50</v>
       </c>
       <c r="DP102" s="1">
-        <v>158.60000610351562</v>
+        <v>158.60000610351563</v>
       </c>
       <c r="DQ102" s="1">
         <v>0</v>
@@ -40633,7 +40641,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="103" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:127">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -40816,13 +40824,13 @@
         <v>100</v>
       </c>
       <c r="BJ103" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BK103" t="s">
         <v>849</v>
       </c>
       <c r="BL103" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BM103" s="1"/>
       <c r="BN103" s="1">
@@ -41008,7 +41016,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="104" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:127">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -41371,7 +41379,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="105" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:127">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -41436,7 +41444,7 @@
         <v>425</v>
       </c>
       <c r="V105" s="1">
-        <v>80.555557250976562</v>
+        <v>80.555557250976563</v>
       </c>
       <c r="W105" t="s">
         <v>547</v>
@@ -41506,7 +41514,7 @@
         <v>80</v>
       </c>
       <c r="AT105" s="1">
-        <v>87.775894165039062</v>
+        <v>87.775894165039063</v>
       </c>
       <c r="AU105" s="1">
         <v>100</v>
@@ -41564,7 +41572,7 @@
       </c>
       <c r="BM105" s="1"/>
       <c r="BN105" s="1">
-        <v>47.555557250976562</v>
+        <v>47.555557250976563</v>
       </c>
       <c r="BO105" s="1">
         <v>225</v>
@@ -41621,7 +41629,7 @@
         <v>0</v>
       </c>
       <c r="CG105" s="1">
-        <v>47.555557250976562</v>
+        <v>47.555557250976563</v>
       </c>
       <c r="CH105" s="1">
         <v>92.857139587402344</v>
@@ -41736,7 +41744,7 @@
         <v>0</v>
       </c>
       <c r="DT105" s="1">
-        <v>87.775894165039062</v>
+        <v>87.775894165039063</v>
       </c>
       <c r="DU105" s="1">
         <v>100</v>
@@ -41746,7 +41754,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="106" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:127">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -42117,7 +42125,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="107" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:127">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -42298,13 +42306,13 @@
         <v>100</v>
       </c>
       <c r="BJ107" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BK107" t="s">
         <v>853</v>
       </c>
       <c r="BL107" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BM107" s="1"/>
       <c r="BN107" s="1">
@@ -42490,7 +42498,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="108" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:127">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -42555,7 +42563,7 @@
         <v>428</v>
       </c>
       <c r="V108" s="1">
-        <v>65.540542602539062</v>
+        <v>65.540542602539063</v>
       </c>
       <c r="W108" t="s">
         <v>550</v>
@@ -42867,7 +42875,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="109" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:127">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -42932,7 +42940,7 @@
         <v>429</v>
       </c>
       <c r="V109" s="1">
-        <v>70.555557250976562</v>
+        <v>70.555557250976563</v>
       </c>
       <c r="W109" t="s">
         <v>551</v>
@@ -43042,13 +43050,13 @@
       <c r="BH109" s="1"/>
       <c r="BI109" s="1"/>
       <c r="BJ109" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK109" t="s">
         <v>855</v>
       </c>
       <c r="BL109" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM109" s="1"/>
       <c r="BN109" s="1">
@@ -43234,7 +43242,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="110" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:127">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -43601,7 +43609,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="111" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:127">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -43778,13 +43786,13 @@
       <c r="BH111" s="1"/>
       <c r="BI111" s="1"/>
       <c r="BJ111" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BK111" t="s">
         <v>857</v>
       </c>
       <c r="BL111" s="1">
-        <v>48.148147583007812</v>
+        <v>48.148147583007813</v>
       </c>
       <c r="BM111" s="1"/>
       <c r="BN111" s="1">
@@ -43946,7 +43954,7 @@
         <v>60</v>
       </c>
       <c r="DP111" s="1">
-        <v>131.60000610351562</v>
+        <v>131.60000610351563</v>
       </c>
       <c r="DQ111" s="1">
         <v>1</v>
@@ -43968,7 +43976,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="112" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:127">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -44103,7 +44111,7 @@
         <v>100</v>
       </c>
       <c r="AT112" s="1">
-        <v>86.513992309570312</v>
+        <v>86.513992309570313</v>
       </c>
       <c r="AU112" s="1">
         <v>0</v>
@@ -44315,7 +44323,7 @@
         <v>0</v>
       </c>
       <c r="DP112" s="1">
-        <v>208.60000610351562</v>
+        <v>208.60000610351563</v>
       </c>
       <c r="DQ112" s="1">
         <v>1</v>
@@ -44327,7 +44335,7 @@
         <v>0</v>
       </c>
       <c r="DT112" s="1">
-        <v>86.513992309570312</v>
+        <v>86.513992309570313</v>
       </c>
       <c r="DU112" s="1">
         <v>100</v>
@@ -44337,7 +44345,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="113" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:127">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -44710,7 +44718,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="114" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:127">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -44891,13 +44899,13 @@
         <v>0</v>
       </c>
       <c r="BJ114" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK114" t="s">
         <v>860</v>
       </c>
       <c r="BL114" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM114" s="1"/>
       <c r="BN114" s="1">
@@ -45061,7 +45069,7 @@
         <v>50</v>
       </c>
       <c r="DP114" s="1">
-        <v>257.60000610351562</v>
+        <v>257.60000610351563</v>
       </c>
       <c r="DQ114" s="1">
         <v>1</v>
@@ -45083,7 +45091,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="115" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:127">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -45262,13 +45270,13 @@
       <c r="BH115" s="1"/>
       <c r="BI115" s="1"/>
       <c r="BJ115" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BK115" t="s">
         <v>771</v>
       </c>
       <c r="BL115" s="1">
-        <v>55.555557250976562</v>
+        <v>55.555557250976563</v>
       </c>
       <c r="BM115" s="1"/>
       <c r="BN115" s="1"/>
@@ -45450,7 +45458,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="116" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:127">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -45570,7 +45578,7 @@
         <v>0</v>
       </c>
       <c r="AO116" s="1">
-        <v>38.402725219726562</v>
+        <v>38.402725219726563</v>
       </c>
       <c r="AP116" s="1">
         <v>66.666664123535156</v>
@@ -45623,14 +45631,14 @@
       <c r="BH116" s="1"/>
       <c r="BI116" s="1"/>
       <c r="BJ116" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BK116" t="s">
         <v>861</v>
       </c>
       <c r="BL116" s="1"/>
       <c r="BM116" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="BN116" s="1">
         <v>23.684209823608398</v>
@@ -45811,7 +45819,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="117" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:127">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -45867,7 +45875,7 @@
         <v>100</v>
       </c>
       <c r="S117" s="1">
-        <v>71.055557250976562</v>
+        <v>71.055557250976563</v>
       </c>
       <c r="T117" s="1">
         <v>69.333335876464844</v>
@@ -46192,7 +46200,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="118" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:127">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -46565,7 +46573,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="119" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:127">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -46926,7 +46934,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="120" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:127">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -46982,7 +46990,7 @@
         <v>100</v>
       </c>
       <c r="S120" s="1">
-        <v>51.555557250976562</v>
+        <v>51.555557250976563</v>
       </c>
       <c r="T120" s="1">
         <v>48.666667938232422</v>
@@ -47267,7 +47275,7 @@
       <c r="DN120" s="1"/>
       <c r="DO120" s="1"/>
       <c r="DP120" s="1">
-        <v>310.60000610351562</v>
+        <v>310.60000610351563</v>
       </c>
       <c r="DQ120" s="1">
         <v>0</v>
@@ -47289,7 +47297,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="121" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:127">
       <c r="A121" t="s">
         <v>120</v>
       </c>
